--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -479,22 +479,22 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>公司年假政策通常包括以下内容，具体内容可能因企业不同而有所差异，但一般会涵盖以下几个方面：
-1. **法定节假日**  
-   - 每年固定5天（春节、国庆节等），按周计算。例如：2023年春节是1月7日-1月18日，共4个星期。
-2. **带薪年假天数**  
-   - 通常根据员工所在的地区或岗位类型设定，如一线城市可能提供3-5个月的带薪年假（每年可调），而中小企业可能较低。具体数字需查看公司公告或劳动合同。
-3. **休息日安排**  
-   - 年假期间仍享有法定节假日和休息日的福利，例如员工在年假期间可享受带薪旅游、家庭护理等额外权益。
-4. **灵活安排**  
-   - 公司可能提供灵活的休假方案，如弹性工作时间、远程办公选项或假期与工作量的平衡机制。
-5. **政策说明**  
-   - 需明确告知员工年假天数计算方式（如是否按月/周算）、带薪假期是否可调，并注明是否有相关补贴或额外福利。
-建议提前咨询HR或查看公司官网，了解具体规则。如果需要个性化方案，可以提供更多信息以便进一步协助。</t>
+          <t>公司的年假政策因行业、地区及企业规模等因素而异，以下是一般情况下的常见内容和建议：
+1. **天数**  
+   - 年假通常为12个月（公休日），具体天数可能根据公司制度调整。例如，有的公司按工作周计算，有的则以自然年为准。
+2. **发放方式**  
+   - 一般通过工资支付系统自动发放，员工需提前申请或提交申请表（如银行汇款、电子发票等）。
+3. **适用范围**  
+   - 年假通常适用于全年工龄满一年的员工，但具体政策可能有差异。部分企业会根据实际工作需求灵活调整年休假天数。
+4. **特殊情况处理**  
+   - 若因工作原因需补休（如家庭紧急事务），可提前申请并经审批后执行。
+5. **合规性**  
+   - 年假发放应严格遵循国家劳动法和公司规章制度，避免违规操作。部分企业会通过内部管理系统进行记录和管理。
+建议直接咨询HR或查看劳动合同中的年假条款以获取最新信息。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0533</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="3">

--- a/data/questions.xlsx
+++ b/data/questions.xlsx
@@ -479,22 +479,22 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>公司的年假政策因行业、地区及企业规模等因素而异，以下是一般情况下的常见内容和建议：
-1. **天数**  
-   - 年假通常为12个月（公休日），具体天数可能根据公司制度调整。例如，有的公司按工作周计算，有的则以自然年为准。
-2. **发放方式**  
-   - 一般通过工资支付系统自动发放，员工需提前申请或提交申请表（如银行汇款、电子发票等）。
-3. **适用范围**  
-   - 年假通常适用于全年工龄满一年的员工，但具体政策可能有差异。部分企业会根据实际工作需求灵活调整年休假天数。
-4. **特殊情况处理**  
-   - 若因工作原因需补休（如家庭紧急事务），可提前申请并经审批后执行。
-5. **合规性**  
-   - 年假发放应严格遵循国家劳动法和公司规章制度，避免违规操作。部分企业会通过内部管理系统进行记录和管理。
-建议直接咨询HR或查看劳动合同中的年假条款以获取最新信息。</t>
+          <t>公司年假政策是员工在法定时间内享受的假期制度，通常包括以下内容：
+1. **基本年假**  
+   - 常见为12个月（或根据实际需要延长）。例如：40岁及以上可获得3个月带薪年假。
+2. **病假/事假**  
+   - 根据公司规定，员工需提前申请并支付相应费用。部分企业会提供医疗报销或保险支持。
+3. **特殊假期**  
+   - 包括但不限于：法定节假日（每周1天）、国家公休假日、纪念日等。
+4. **年休假计算方式**  
+   - 通常按月累计，超过法定上限后可自愿申请延长。例如：每年12个月带薪年假，若超过36个月则需额外获得假期。
+5. **注意事项**  
+   - 确认公司是否提供补贴或福利（如保险、交通等），并注意避免因未及时报到导致的争议。
+建议关注公司具体政策，并提前了解相关规则。</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.028</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="3">
